--- a/3-data/output/article-selection/mpox-linked-pages.xlsx
+++ b/3-data/output/article-selection/mpox-linked-pages.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A451"/>
+  <dimension ref="A1:A452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3461,54 +3461,61 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Wikidata</t>
+          <t>Wayback Machine</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Wikispecies</t>
+          <t>Wikidata</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Wikipedia:Make technical articles understandable</t>
+          <t>Wikispecies</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Template:Taxonomy/Orthopoxvirus</t>
+          <t>Wikipedia:Make technical articles understandable</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Help:Maintenance template removal</t>
+          <t>Template:Taxonomy/Orthopoxvirus</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Help:Taxon identifiers</t>
+          <t>Help:Maintenance template removal</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Category:Articles with J9U identifiers</t>
+          <t>Help:Taxon identifiers</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
+        <is>
+          <t>Category:Articles with J9U identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
         <is>
           <t>Category:Wikipedia articles that are too technical from June 2023</t>
         </is>
